--- a/DeepBeam2.xlsx
+++ b/DeepBeam2.xlsx
@@ -51,26 +51,28 @@
     <t>fyv</t>
   </si>
   <si>
-    <t>ρv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>sh</t>
   </si>
   <si>
     <t>fyh</t>
   </si>
   <si>
-    <t>ρh</t>
-  </si>
-  <si>
     <t>fy</t>
   </si>
   <si>
-    <t>ρy</t>
+    <t>V</t>
   </si>
   <si>
-    <t>V</t>
+    <t>rv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -991,7 +993,7 @@
   <dimension ref="A1:Q273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,25 +1030,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
